--- a/gunOwnership.xlsx
+++ b/gunOwnership.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyraby/Documents/development/nickPowersTikTok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7531FFA1-A760-8A4A-A9B9-78F9845D7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7E50C4CD-331E-D048-9C23-1B99FDD71267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25520" windowHeight="15320" activeTab="3"/>
   </bookViews>
@@ -260,7 +260,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="741" r:id="rId5"/>
+    <pivotCache cacheId="743" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="505">
   <si>
     <t>State</t>
   </si>
@@ -1833,6 +1833,12 @@
   <si>
     <t>Pearson r</t>
   </si>
+  <si>
+    <t>Sum of Firearm Deaths Per 100,000</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
 </sst>
 </file>
 
@@ -1974,7 +1980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2154,8 +2160,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2270,6 +2282,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2315,7 +2336,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2325,6 +2346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2373,7 +2395,47 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3221,6 +3283,733 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivotTables!$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Firearm Deaths Per 100,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pivotTables!$G$64:$G$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pivotTables!$H$64:$H$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA9C-EB4B-95DC-33F168CF4DA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="251890847"/>
+        <c:axId val="251892271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="251890847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Firearm Ownership</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251892271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="251892271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Firearm Deaths per 100k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251890847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3946,6 +4735,734 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivotTables!$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Firearm Deaths Per 100,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pivotTables!$G$64:$G$113</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pivotTables!$H$64:$H$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2112-C245-897B-F55B55D09CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="251890847"/>
+        <c:axId val="251892271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="251890847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Firearm Ownership</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251892271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="251892271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Firearm Deaths per 100k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251890847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3987,6 +5504,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5058,6 +6655,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5091,6 +7720,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4157C0D-B695-0C65-DB69-83DE2F05A9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5134,6 +7799,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994C3D00-D274-0846-A303-D83827072B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5196,6 +7899,69 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:t>0.32</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.20945</cdr:x>
+      <cdr:y>0.33777</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27714</cdr:x>
+      <cdr:y>0.39894</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="pivotTables!$I$64">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC740829-19F7-249D-B7AB-E5DCA97B0E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2082800" y="1612900"/>
+          <a:ext cx="673100" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>r = </a:t>
+          </a:r>
+          <a:fld id="{C1068863-8C68-8A4C-B542-3A623B0D2ECE}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>0.79</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -5575,7 +8341,55 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="20.5"/>
     </cacheField>
     <cacheField name="Firearm Deaths Per 100,000" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4" maxValue="28.6"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4" maxValue="28.6" count="47">
+        <n v="23.5"/>
+        <n v="23.6"/>
+        <n v="22.6"/>
+        <n v="16.7"/>
+        <n v="8.5"/>
+        <n v="15.4"/>
+        <n v="6"/>
+        <n v="14.4"/>
+        <n v="13.7"/>
+        <n v="17.7"/>
+        <n v="3.4"/>
+        <n v="11.2"/>
+        <n v="17.600000000000001"/>
+        <n v="14.1"/>
+        <n v="17.3"/>
+        <n v="16.899999999999999"/>
+        <n v="20.100000000000001"/>
+        <n v="26.3"/>
+        <n v="3.7"/>
+        <n v="13.5"/>
+        <n v="10.4"/>
+        <n v="14.6"/>
+        <n v="8.9"/>
+        <n v="23.9"/>
+        <n v="28.6"/>
+        <n v="20.9"/>
+        <n v="16"/>
+        <n v="13.8"/>
+        <n v="10.1"/>
+        <n v="5"/>
+        <n v="22.7"/>
+        <n v="17"/>
+        <n v="5.3"/>
+        <n v="15.2"/>
+        <n v="20.7"/>
+        <n v="13"/>
+        <n v="13.6"/>
+        <n v="5.0999999999999996"/>
+        <n v="22"/>
+        <n v="21.3"/>
+        <n v="14.2"/>
+        <n v="13.4"/>
+        <n v="11.6"/>
+        <n v="10.9"/>
+        <n v="12.2"/>
+        <n v="18.100000000000001"/>
+        <n v="25.9"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Deaths caused by DUI Per 100k" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4" maxValue="7.6"/>
@@ -6229,7 +9043,7 @@
     <n v="69"/>
     <n v="9.4175710039999991"/>
     <n v="7.3"/>
-    <n v="23.5"/>
+    <x v="0"/>
     <n v="3.1"/>
     <n v="77.7"/>
     <n v="0.54"/>
@@ -6481,7 +9295,7 @@
     <n v="28"/>
     <n v="0.55556911399999998"/>
     <n v="14.2"/>
-    <n v="23.6"/>
+    <x v="1"/>
     <n v="5.5"/>
     <n v="75.2"/>
     <n v="0.31"/>
@@ -6733,7 +9547,7 @@
     <n v="35"/>
     <n v="1.1566840970000001"/>
     <n v="13"/>
-    <n v="22.6"/>
+    <x v="2"/>
     <n v="4.7"/>
     <n v="75.7"/>
     <n v="0.25"/>
@@ -6985,7 +9799,7 @@
     <n v="37"/>
     <n v="0.50849908099999996"/>
     <n v="7.5"/>
-    <n v="16.7"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="78.8"/>
     <n v="3.91"/>
@@ -7237,7 +10051,7 @@
     <n v="27"/>
     <n v="6.8811133999999996E-2"/>
     <n v="6.1"/>
-    <n v="8.5"/>
+    <x v="4"/>
     <n v="2.8"/>
     <n v="80.900000000000006"/>
     <n v="2.77"/>
@@ -7489,7 +10303,7 @@
     <n v="49"/>
     <n v="0.84307326699999996"/>
     <n v="5.8"/>
-    <n v="15.4"/>
+    <x v="5"/>
     <n v="3.2"/>
     <n v="80"/>
     <n v="1.9"/>
@@ -7741,7 +10555,7 @@
     <n v="6"/>
     <n v="0.166407949"/>
     <n v="4.5999999999999996"/>
-    <n v="6"/>
+    <x v="6"/>
     <n v="3.4"/>
     <n v="80.3"/>
     <n v="3.09"/>
@@ -7993,7 +10807,7 @@
     <n v="18"/>
     <n v="1.7939293430000001"/>
     <n v="9.9"/>
-    <n v="14.4"/>
+    <x v="7"/>
     <n v="3.3"/>
     <n v="78.099999999999994"/>
     <n v="3.01"/>
@@ -8245,7 +11059,7 @@
     <n v="23"/>
     <n v="0.105596"/>
     <n v="7.8"/>
-    <n v="13.7"/>
+    <x v="8"/>
     <n v="4"/>
     <n v="79"/>
     <n v="0.71"/>
@@ -8497,7 +11311,7 @@
     <n v="27"/>
     <n v="0.25001004700000001"/>
     <n v="10.5"/>
-    <n v="17.7"/>
+    <x v="9"/>
     <n v="3.5"/>
     <n v="77.400000000000006"/>
     <n v="0.3"/>
@@ -8749,7 +11563,7 @@
     <n v="26"/>
     <n v="1.8036104120000001"/>
     <n v="3.3"/>
-    <n v="3.4"/>
+    <x v="10"/>
     <n v="3"/>
     <n v="80.900000000000006"/>
     <s v="No data"/>
@@ -9001,7 +11815,7 @@
     <n v="14"/>
     <n v="0.438448281"/>
     <n v="3.6"/>
-    <n v="11.2"/>
+    <x v="11"/>
     <n v="2.8"/>
     <n v="79"/>
     <n v="0.35"/>
@@ -9253,7 +12067,7 @@
     <n v="37"/>
     <n v="1.9464228690000001"/>
     <n v="2.5"/>
-    <n v="17.600000000000001"/>
+    <x v="12"/>
     <n v="3.5"/>
     <n v="79.5"/>
     <n v="3.12"/>
@@ -9505,7 +12319,7 @@
     <n v="11"/>
     <n v="8.6809193000000007E-2"/>
     <n v="11.2"/>
-    <n v="14.1"/>
+    <x v="13"/>
     <n v="2.7"/>
     <n v="79"/>
     <n v="0.67"/>
@@ -9757,7 +12571,7 @@
     <n v="21"/>
     <n v="0.30855195800000002"/>
     <n v="9.6999999999999993"/>
-    <n v="17.3"/>
+    <x v="14"/>
     <n v="3.3"/>
     <n v="77"/>
     <n v="2.4"/>
@@ -10009,7 +12823,7 @@
     <n v="23"/>
     <n v="0.78375727799999995"/>
     <n v="7"/>
-    <n v="16.899999999999999"/>
+    <x v="15"/>
     <n v="3.5"/>
     <n v="78.2"/>
     <n v="2.86"/>
@@ -10261,7 +13075,7 @@
     <n v="30"/>
     <n v="0.66527786200000005"/>
     <n v="9.5"/>
-    <n v="20.100000000000001"/>
+    <x v="16"/>
     <n v="4.0999999999999996"/>
     <n v="75.5"/>
     <n v="8.51"/>
@@ -10513,7 +13327,7 @@
     <n v="32"/>
     <n v="0.692034488"/>
     <n v="19.899999999999999"/>
-    <n v="26.3"/>
+    <x v="17"/>
     <n v="4.5"/>
     <n v="75.7"/>
     <n v="0.69"/>
@@ -10765,7 +13579,7 @@
     <n v="8"/>
     <n v="0.11453568"/>
     <n v="2.7"/>
-    <n v="3.7"/>
+    <x v="18"/>
     <n v="1.8"/>
     <n v="80.400000000000006"/>
     <n v="6.37"/>
@@ -11017,7 +13831,7 @@
     <n v="17"/>
     <n v="0.27574443300000001"/>
     <n v="11.4"/>
-    <n v="13.5"/>
+    <x v="19"/>
     <n v="3.1"/>
     <n v="78.5"/>
     <n v="0.79"/>
@@ -11269,7 +14083,7 @@
     <n v="23"/>
     <n v="1.6760830959999999"/>
     <n v="1.6"/>
-    <n v="10.4"/>
+    <x v="20"/>
     <n v="3.7"/>
     <n v="78.3"/>
     <n v="2.4"/>
@@ -11521,7 +14335,7 @@
     <n v="13"/>
     <n v="0.12934279600000001"/>
     <n v="8.6999999999999993"/>
-    <n v="14.6"/>
+    <x v="21"/>
     <n v="3.1"/>
     <n v="78"/>
     <n v="4.59"/>
@@ -11773,7 +14587,7 @@
     <n v="15"/>
     <n v="0.26281715500000002"/>
     <n v="3.6"/>
-    <n v="8.9"/>
+    <x v="22"/>
     <n v="1.5"/>
     <n v="80.400000000000006"/>
     <n v="2.65"/>
@@ -12025,7 +14839,7 @@
     <n v="31"/>
     <n v="0.50257879699999997"/>
     <n v="14"/>
-    <n v="23.9"/>
+    <x v="23"/>
     <n v="4.2"/>
     <n v="76.900000000000006"/>
     <n v="1.72"/>
@@ -12277,7 +15091,7 @@
     <n v="31"/>
     <n v="1.0508599249999999"/>
     <n v="20.5"/>
-    <n v="28.6"/>
+    <x v="24"/>
     <n v="5"/>
     <n v="74.400000000000006"/>
     <n v="0.15"/>
@@ -12529,7 +15343,7 @@
     <n v="45"/>
     <n v="4.0750866410000004"/>
     <n v="6.6"/>
-    <n v="20.9"/>
+    <x v="25"/>
     <n v="5.3"/>
     <n v="78.400000000000006"/>
     <n v="1.43"/>
@@ -12781,7 +15595,7 @@
     <n v="21"/>
     <n v="0.19903021100000001"/>
     <n v="8.6"/>
-    <n v="16"/>
+    <x v="26"/>
     <n v="4.0999999999999996"/>
     <n v="77.599999999999994"/>
     <n v="1.62"/>
@@ -13033,7 +15847,7 @@
     <n v="22"/>
     <n v="2.838900158"/>
     <n v="4.4000000000000004"/>
-    <n v="13.8"/>
+    <x v="27"/>
     <n v="6.1"/>
     <n v="78.8"/>
     <n v="1.99"/>
@@ -13285,7 +16099,7 @@
     <n v="20"/>
     <n v="1.018489661"/>
     <n v="4.0999999999999996"/>
-    <n v="10.1"/>
+    <x v="28"/>
     <n v="3.5"/>
     <n v="79.2"/>
     <n v="2.41"/>
@@ -13537,7 +16351,7 @@
     <n v="15"/>
     <n v="1.0799198270000001"/>
     <n v="0"/>
-    <n v="8.9"/>
+    <x v="22"/>
     <n v="2"/>
     <n v="79.400000000000006"/>
     <n v="1"/>
@@ -13789,7 +16603,7 @@
     <n v="10"/>
     <n v="0.107908274"/>
     <n v="4.3"/>
-    <n v="5"/>
+    <x v="29"/>
     <n v="1.4"/>
     <n v="80.099999999999994"/>
     <n v="5.5"/>
@@ -14041,7 +16855,7 @@
     <n v="75"/>
     <n v="3.5446294850000002"/>
     <n v="10.8"/>
-    <n v="22.7"/>
+    <x v="30"/>
     <n v="5.8"/>
     <n v="76.900000000000006"/>
     <n v="1.25"/>
@@ -14293,7 +17107,7 @@
     <n v="43"/>
     <n v="1.367688394"/>
     <n v="7.3"/>
-    <n v="17"/>
+    <x v="31"/>
     <n v="3"/>
     <n v="78"/>
     <n v="0.17"/>
@@ -14545,7 +17359,7 @@
     <n v="7"/>
     <n v="3.5289528000000001E-2"/>
     <n v="4.7"/>
-    <n v="5.3"/>
+    <x v="32"/>
     <n v="1.5"/>
     <n v="80.7"/>
     <n v="2.8"/>
@@ -14797,7 +17611,7 @@
     <n v="17"/>
     <n v="0.14431218600000001"/>
     <n v="9.1"/>
-    <n v="15.2"/>
+    <x v="33"/>
     <n v="2.9"/>
     <n v="76.900000000000006"/>
     <n v="3.92"/>
@@ -15049,7 +17863,7 @@
     <n v="53"/>
     <n v="1.329440664"/>
     <n v="9"/>
-    <n v="20.7"/>
+    <x v="34"/>
     <n v="4.2"/>
     <n v="75.7"/>
     <n v="0.94"/>
@@ -15301,7 +18115,7 @@
     <n v="30"/>
     <n v="0.70652154700000003"/>
     <n v="3.8"/>
-    <n v="13"/>
+    <x v="35"/>
     <n v="3.3"/>
     <n v="79.599999999999994"/>
     <n v="3.74"/>
@@ -15553,7 +18367,7 @@
     <n v="12"/>
     <n v="9.2563623999999997E-2"/>
     <n v="8.5"/>
-    <n v="13.6"/>
+    <x v="36"/>
     <n v="2.5"/>
     <n v="78.3"/>
     <n v="0.61"/>
@@ -15805,7 +18619,7 @@
     <n v="5"/>
     <n v="0.456366773"/>
     <n v="3"/>
-    <n v="5.0999999999999996"/>
+    <x v="37"/>
     <n v="3.2"/>
     <n v="79.5"/>
     <n v="1.04"/>
@@ -16057,7 +18871,7 @@
     <n v="24"/>
     <n v="0.46236493899999997"/>
     <n v="12.7"/>
-    <n v="22"/>
+    <x v="38"/>
     <n v="6.3"/>
     <n v="76.8"/>
     <n v="1.74"/>
@@ -16309,7 +19123,7 @@
     <n v="28"/>
     <n v="3.1271778559999999"/>
     <n v="6.5"/>
-    <n v="13.6"/>
+    <x v="36"/>
     <n v="4"/>
     <n v="78.400000000000006"/>
     <n v="2.13"/>
@@ -16561,7 +19375,7 @@
     <n v="31"/>
     <n v="0.44443055399999998"/>
     <n v="11.5"/>
-    <n v="21.3"/>
+    <x v="39"/>
     <n v="3.7"/>
     <n v="75.599999999999994"/>
     <n v="2.0299999999999998"/>
@@ -16813,7 +19627,7 @@
     <n v="24"/>
     <n v="8.1278949000000003E-2"/>
     <n v="7.6"/>
-    <n v="14.2"/>
+    <x v="40"/>
     <n v="3.2"/>
     <n v="78.599999999999994"/>
     <n v="0.68"/>
@@ -17065,7 +19879,7 @@
     <n v="29"/>
     <n v="0.86879021000000001"/>
     <n v="2.9"/>
-    <n v="13.6"/>
+    <x v="36"/>
     <n v="1.7"/>
     <n v="79.7"/>
     <n v="2.5499999999999998"/>
@@ -17317,7 +20131,7 @@
     <n v="15"/>
     <n v="0.17356542999999999"/>
     <n v="6.4"/>
-    <n v="13.4"/>
+    <x v="41"/>
     <n v="2.9"/>
     <n v="79.099999999999994"/>
     <n v="2.2799999999999998"/>
@@ -17569,7 +20383,7 @@
     <n v="18"/>
     <n v="2.7882336539999999"/>
     <n v="0"/>
-    <n v="11.6"/>
+    <x v="42"/>
     <n v="2.9"/>
     <n v="79.8"/>
     <n v="5.45"/>
@@ -17821,7 +20635,7 @@
     <n v="28"/>
     <n v="0.36181825000000001"/>
     <n v="4.2"/>
-    <n v="10.9"/>
+    <x v="43"/>
     <n v="2.4"/>
     <n v="80"/>
     <n v="6.9"/>
@@ -18073,7 +20887,7 @@
     <n v="19"/>
     <n v="0.322257403"/>
     <n v="6.1"/>
-    <n v="12.2"/>
+    <x v="44"/>
     <n v="3.3"/>
     <n v="79.3"/>
     <n v="0.8"/>
@@ -18325,7 +21139,7 @@
     <n v="36"/>
     <n v="2.0191154139999998"/>
     <n v="7"/>
-    <n v="18.100000000000001"/>
+    <x v="45"/>
     <n v="4"/>
     <n v="74.5"/>
     <n v="1.95"/>
@@ -18577,7 +21391,7 @@
     <n v="38"/>
     <n v="6.5652735040000003"/>
     <n v="4.9000000000000004"/>
-    <n v="25.9"/>
+    <x v="46"/>
     <n v="7.6"/>
     <n v="77.7"/>
     <n v="0.72"/>
@@ -18778,7 +21592,730 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable89" cacheId="741" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable90" cacheId="743" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B63:D114" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="251">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="51">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="49">
+        <item x="18"/>
+        <item x="37"/>
+        <item x="10"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="33"/>
+        <item x="21"/>
+        <item x="36"/>
+        <item x="29"/>
+        <item x="44"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="42"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="38"/>
+        <item x="43"/>
+        <item x="35"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="39"/>
+        <item x="1"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="47"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="48">
+        <item x="10"/>
+        <item x="18"/>
+        <item x="29"/>
+        <item x="37"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="20"/>
+        <item x="43"/>
+        <item x="11"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="35"/>
+        <item x="41"/>
+        <item x="19"/>
+        <item x="36"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="13"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="31"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="45"/>
+        <item x="16"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="2"/>
+        <item x="30"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="23"/>
+        <item x="46"/>
+        <item x="17"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="51">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Firearm Ownership" fld="45" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Firearm Deaths Per 100,000" fld="54" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="2">
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="50">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+              <x v="31"/>
+              <x v="32"/>
+              <x v="33"/>
+              <x v="34"/>
+              <x v="35"/>
+              <x v="36"/>
+              <x v="37"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="40"/>
+              <x v="41"/>
+              <x v="42"/>
+              <x v="43"/>
+              <x v="44"/>
+              <x v="45"/>
+              <x v="46"/>
+              <x v="47"/>
+              <x v="48"/>
+              <x v="49"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="50">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+              <x v="31"/>
+              <x v="32"/>
+              <x v="33"/>
+              <x v="34"/>
+              <x v="35"/>
+              <x v="36"/>
+              <x v="37"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="40"/>
+              <x v="41"/>
+              <x v="42"/>
+              <x v="43"/>
+              <x v="44"/>
+              <x v="45"/>
+              <x v="46"/>
+              <x v="47"/>
+              <x v="48"/>
+              <x v="49"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable89" cacheId="743" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B4:D55" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="251">
     <pivotField showAll="0">
@@ -19420,7 +22957,7 @@
     <dataField name="Sum of Violent Crime per 100k (2020)" fld="46" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="8">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -19483,7 +23020,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -19547,25 +23084,7 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -58141,7 +61660,7 @@
   <dimension ref="A1:IP51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="GB5" sqref="GB5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -96382,10 +99901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I55"/>
+  <dimension ref="B4:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="E59" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -96395,9 +99914,9 @@
     <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="47" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -96426,22 +99945,22 @@
       <c r="B5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.64500000000000002</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>837.8</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>0.64500000000000002</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>837.8</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <f>PEARSON(G5:G54,H5:H54)</f>
         <v>0.32227738326272026</v>
       </c>
@@ -96450,19 +99969,19 @@
       <c r="B6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>0.55500000000000005</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>453.6</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>0.55500000000000005</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>453.6</v>
       </c>
     </row>
@@ -96470,19 +99989,19 @@
       <c r="B7" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>671.9</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>0.57199999999999995</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>671.9</v>
       </c>
     </row>
@@ -96490,19 +100009,19 @@
       <c r="B8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>0.46300000000000002</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>654.79999999999995</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>0.46300000000000002</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>654.79999999999995</v>
       </c>
     </row>
@@ -96510,19 +100029,19 @@
       <c r="B9" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>0.28299999999999997</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>442</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>0.28299999999999997</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>442</v>
       </c>
     </row>
@@ -96530,19 +100049,19 @@
       <c r="B10" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>0.45100000000000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>423.1</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>423.1</v>
       </c>
     </row>
@@ -96550,19 +100069,19 @@
       <c r="B11" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>181.6</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>181.6</v>
       </c>
     </row>
@@ -96570,19 +100089,19 @@
       <c r="B12" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>0.34399999999999997</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>431.9</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>431.9</v>
       </c>
     </row>
@@ -96590,19 +100109,19 @@
       <c r="B13" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>0.35299999999999998</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>383.6</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>0.35299999999999998</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>383.6</v>
       </c>
     </row>
@@ -96610,19 +100129,19 @@
       <c r="B14" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>0.49199999999999999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>400.1</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>0.49199999999999999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>400.1</v>
       </c>
     </row>
@@ -96630,19 +100149,19 @@
       <c r="B15" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>254.2</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>254.2</v>
       </c>
     </row>
@@ -96650,19 +100169,19 @@
       <c r="B16" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>0.436</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>303.5</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>0.436</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>303.5</v>
       </c>
     </row>
@@ -96670,19 +100189,19 @@
       <c r="B17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>0.60099999999999998</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>242.6</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>0.60099999999999998</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>242.6</v>
       </c>
     </row>
@@ -96690,19 +100209,19 @@
       <c r="B18" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>425.9</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>0.27800000000000002</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>425.9</v>
       </c>
     </row>
@@ -96710,19 +100229,19 @@
       <c r="B19" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>0.44800000000000001</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>357.7</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>357.7</v>
       </c>
     </row>
@@ -96730,19 +100249,19 @@
       <c r="B20" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>425</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>425</v>
       </c>
     </row>
@@ -96750,19 +100269,19 @@
       <c r="B21" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>259.10000000000002</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>0.54600000000000004</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>259.10000000000002</v>
       </c>
     </row>
@@ -96770,19 +100289,19 @@
       <c r="B22" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>639.4</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>0.53100000000000003</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>639.4</v>
       </c>
     </row>
@@ -96790,19 +100309,19 @@
       <c r="B23" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>0.14699999999999999</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>308.8</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>308.8</v>
       </c>
     </row>
@@ -96810,19 +100329,19 @@
       <c r="B24" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>399.9</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>399.9</v>
       </c>
     </row>
@@ -96830,19 +100349,19 @@
       <c r="B25" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>0.46800000000000003</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>108.6</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>0.46800000000000003</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>108.6</v>
       </c>
     </row>
@@ -96850,19 +100369,19 @@
       <c r="B26" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>0.40200000000000002</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>478</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>0.40200000000000002</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <v>478</v>
       </c>
     </row>
@@ -96870,19 +100389,19 @@
       <c r="B27" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>0.42799999999999999</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>277.5</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>0.42799999999999999</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>277.5</v>
       </c>
     </row>
@@ -96890,19 +100409,19 @@
       <c r="B28" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>542.70000000000005</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <v>0.48799999999999999</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="6">
         <v>542.70000000000005</v>
       </c>
     </row>
@@ -96910,19 +100429,19 @@
       <c r="B29" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>291.2</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>291.2</v>
       </c>
     </row>
@@ -96930,19 +100449,19 @@
       <c r="B30" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>0.66300000000000003</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>469.8</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="7">
         <v>0.66300000000000003</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <v>469.8</v>
       </c>
     </row>
@@ -96950,19 +100469,19 @@
       <c r="B31" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>0.45800000000000002</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>419.3</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <v>0.45800000000000002</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>419.3</v>
       </c>
     </row>
@@ -96970,19 +100489,19 @@
       <c r="B32" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>0.55100000000000005</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>329</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="7">
         <v>0.55100000000000005</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="6">
         <v>329</v>
       </c>
     </row>
@@ -96990,19 +100509,19 @@
       <c r="B33" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="7">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <v>334.1</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <v>0.45200000000000001</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="6">
         <v>334.1</v>
       </c>
     </row>
@@ -97010,19 +100529,19 @@
       <c r="B34" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>0.41099999999999998</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
         <v>146.4</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="7">
         <v>0.41099999999999998</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="6">
         <v>146.4</v>
       </c>
     </row>
@@ -97030,19 +100549,19 @@
       <c r="B35" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <v>0.14699999999999999</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
         <v>195.4</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>195.4</v>
       </c>
     </row>
@@ -97050,19 +100569,19 @@
       <c r="B36" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
         <v>778.3</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="7">
         <v>0.46200000000000002</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="6">
         <v>778.3</v>
       </c>
     </row>
@@ -97070,19 +100589,19 @@
       <c r="B37" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>0.47299999999999998</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="6">
         <v>460.3</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="7">
         <v>0.47299999999999998</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <v>460.3</v>
       </c>
     </row>
@@ -97090,19 +100609,19 @@
       <c r="B38" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>0.19900000000000001</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
         <v>363.8</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="7">
         <v>0.19900000000000001</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="6">
         <v>363.8</v>
       </c>
     </row>
@@ -97110,19 +100629,19 @@
       <c r="B39" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>0.4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
         <v>308.8</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>0.4</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>308.8</v>
       </c>
     </row>
@@ -97130,19 +100649,19 @@
       <c r="B40" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
         <v>458.6</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="7">
         <v>0.54700000000000004</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="6">
         <v>458.6</v>
       </c>
     </row>
@@ -97150,19 +100669,19 @@
       <c r="B41" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="6">
         <v>291.89999999999998</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="7">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="6">
         <v>291.89999999999998</v>
       </c>
     </row>
@@ -97170,19 +100689,19 @@
       <c r="B42" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>0.40699999999999997</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
         <v>389.5</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>0.40699999999999997</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="6">
         <v>389.5</v>
       </c>
     </row>
@@ -97190,19 +100709,19 @@
       <c r="B43" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>230.8</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="7">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <v>230.8</v>
       </c>
     </row>
@@ -97210,19 +100729,19 @@
       <c r="B44" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>0.49399999999999999</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>530.70000000000005</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>0.49399999999999999</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="6">
         <v>530.70000000000005</v>
       </c>
     </row>
@@ -97230,19 +100749,19 @@
       <c r="B45" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>0.55300000000000005</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>501.4</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="7">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="6">
         <v>501.4</v>
       </c>
     </row>
@@ -97250,19 +100769,19 @@
       <c r="B46" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>0.51600000000000001</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
         <v>672.7</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="6">
         <v>672.7</v>
       </c>
     </row>
@@ -97270,19 +100789,19 @@
       <c r="B47" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="7">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
         <v>446.5</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="7">
         <v>0.45700000000000002</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="6">
         <v>446.5</v>
       </c>
     </row>
@@ -97290,168 +100809,1065 @@
       <c r="B48" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="7">
         <v>0.46800000000000003</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="6">
         <v>260.7</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>0.46800000000000003</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="6">
         <v>260.7</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="7">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="6">
         <v>208</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>0.44600000000000001</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="6">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>0.505</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="6">
         <v>173.4</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="7">
         <v>0.505</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="6">
         <v>173.4</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="7">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
         <v>293.7</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="7">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="6">
         <v>293.7</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>0.45300000000000001</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
         <v>323.39999999999998</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="7">
         <v>0.45300000000000001</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="6">
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="7">
         <v>0.58499999999999996</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
         <v>355.9</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="7">
         <v>0.58499999999999996</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="6">
         <v>355.9</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="7">
         <v>0.66200000000000003</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="6">
         <v>234.2</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="7">
         <v>0.66200000000000003</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="6">
         <v>234.2</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="7">
         <v>22.051000000000002</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="6">
         <v>19371.100000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C63" t="s">
+        <v>498</v>
+      </c>
+      <c r="D63" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D64" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H64" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="I64" s="8">
+        <f>PEARSON(G64:G113,H64:H113)</f>
+        <v>0.79401728963134999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D65" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H65" s="6">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D66" s="6">
+        <v>22.6</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="H66" s="6">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D67" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="H67" s="6">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D68" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="H68" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="D69" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H69" s="6">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D70" s="6">
+        <v>6</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H70" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D71" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H71" s="6">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D72" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="H72" s="6">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D73" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="H73" s="6">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D74" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H74" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.436</v>
+      </c>
+      <c r="D75" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0.436</v>
+      </c>
+      <c r="H75" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D76" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H76" s="6">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D77" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H77" s="6">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D78" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H78" s="6">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D79" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H79" s="6">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D80" s="6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H80" s="6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D81" s="6">
+        <v>26.3</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H81" s="6">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D83" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H83" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D84" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H84" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D85" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="H85" s="6">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D86" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H86" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D87" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H87" s="6">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D88" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H88" s="6">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D89" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H89" s="6">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C90" s="7">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D90" s="6">
+        <v>16</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H90" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D91" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="H91" s="6">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C92" s="7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D92" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H92" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C93" s="7">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D93" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H93" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" s="7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D94" s="6">
+        <v>5</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H94" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C95" s="7">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D95" s="6">
+        <v>22.7</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="H95" s="6">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" s="7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D96" s="6">
+        <v>17</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H96" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D97" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H97" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C98" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D98" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H98" s="6">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C99" s="7">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D99" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H99" s="6">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C100" s="7">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D100" s="6">
+        <v>13</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H100" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C101" s="7">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D101" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H101" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C102" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D102" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H102" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C103" s="7">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D103" s="6">
+        <v>22</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H103" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C104" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D104" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H104" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C105" s="7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D105" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H105" s="6">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C106" s="7">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D106" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H106" s="6">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C107" s="7">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D107" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H107" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C108" s="7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="D108" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H108" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C109" s="7">
+        <v>0.505</v>
+      </c>
+      <c r="D109" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="G109" s="7">
+        <v>0.505</v>
+      </c>
+      <c r="H109" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110" s="7">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D110" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="H110" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C111" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D111" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H111" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C112" s="7">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D112" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H112" s="6">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C113" s="7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D113" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="H113" s="6">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C114" s="7">
+        <v>22.051000000000002</v>
+      </c>
+      <c r="D114" s="6">
+        <v>756.70000000000016</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="C5:C54">
+    <cfRule type="top10" dxfId="7" priority="8" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D54">
+    <cfRule type="top10" dxfId="6" priority="7" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G54">
+    <cfRule type="top10" dxfId="5" priority="6" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H54">
+    <cfRule type="top10" dxfId="4" priority="5" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C64:D113">
     <cfRule type="top10" dxfId="3" priority="4" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D5:D54">
+  <conditionalFormatting pivot="1" sqref="C64:C113">
     <cfRule type="top10" dxfId="2" priority="3" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G54">
+  <conditionalFormatting sqref="G64:H113">
     <cfRule type="top10" dxfId="1" priority="2" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H54">
+  <conditionalFormatting sqref="G64:G113">
     <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -97459,8 +101875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
